--- a/data/financial_statements/soci/TDY.xlsx
+++ b/data/financial_statements/soci/TDY.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -134,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -491,994 +605,1015 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>1418200000</v>
+      </c>
+      <c r="C2">
         <v>1363600000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1355800000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1321000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1375700000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1311900000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1121000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>805700000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>809299900</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>749000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>743300000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>784600000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>834200100</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>802200000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>782000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>745200000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>748400000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>725300000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>732500000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>695600000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>704400100</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>662200000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>671100000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>566100000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>552899900</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>526800000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>539700000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>530500000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>607800200</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>551700000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>573600000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>565000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>622300000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>601100000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>597100000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>573500000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>596600100</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>571600000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>601000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>569400000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.0309</v>
+      </c>
+      <c r="C3">
         <v>0.0394</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.2095</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.6395999999999999</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.6999</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.7514999999999999</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.5081</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.0269</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.0298</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.0663</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.0495</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.0529</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.1146</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.106</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.06759999999999999</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0713</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.0625</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0953</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.0915</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.2288</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.274</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.257</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.2435</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.06710000000000001</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>-0.09030000000000001</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>-0.0451</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>-0.0591</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>-0.0611</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.0233</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.0822</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.0394</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-0.0148</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.0431</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.0516</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>-0.0065</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.0072</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.0515</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.0442</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.1591</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.1526</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>801300000</v>
+      </c>
+      <c r="C4">
         <v>785800000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>788600000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>752600000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>829600000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>787700000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>663100000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>492500000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>493600100</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>458500000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>460600000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>492600000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>505100100</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>487700000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>463600000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>463900000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>459600000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>446200000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>447000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>438200000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>437200000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>408600000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>421200000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>357000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>351500000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>317000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>336200000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>324800000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>387700000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>340300000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>353900000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>345900000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>391599900</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>375400000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>368400000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>351700000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>382000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>369000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>383600000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>365400000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>616900000</v>
+      </c>
+      <c r="C5">
         <v>577800000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>567200100</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>568400000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>546100000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>524200000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>457900000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>313200000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>315699900</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>290500000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>282700000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>292000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>329100000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>314500000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>318400000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>281300000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>288800000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>279100000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>285500000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>257400000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>267200100</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>253600000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>249900000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>209100000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>201399900</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>209800000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>203500000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>205700000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>220100200</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>211400000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>219700000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>219100000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>230700100</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>225700000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>228700000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>221800000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>214600100</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>202600000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>217400000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>204000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>295200000</v>
+      </c>
+      <c r="C6">
         <v>283700000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>286400000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>291300000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>299600000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>279300000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>320700000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>168200000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>315900000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>158100000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>173000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>188000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>158800000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>185800000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>186500000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>184000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>177600000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>173600000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>174000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>169000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>172600000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>164100000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>167100000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>154300000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>144200000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>141000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>149900000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>144800000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>146600000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>139600000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>150600000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>151800000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>150800000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>151400000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>154400000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>155800000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>151100000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>149600000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>152500000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>145100000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>273799900</v>
+      </c>
+      <c r="C7">
         <v>245200000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>229500100</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>223500000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>195100000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>189600000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>104400000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>135200000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>143799800</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>122500000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>109800000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>104000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>133800200</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>128700000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>131900000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>97300000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>111200100</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>105499900</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>111500000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>88400000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>94600000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>89500000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>82799900</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>54800000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>57199800</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>68800000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>53600000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>60900000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>73500200</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>71800000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>69100000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>67300000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>79900200</v>
-      </c>
-      <c r="AH7">
-        <v>74300000</v>
       </c>
       <c r="AI7">
         <v>74300000</v>
       </c>
       <c r="AJ7">
+        <v>74300000</v>
+      </c>
+      <c r="AK7">
         <v>66000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>63500000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>53000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>64900000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>58900000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>24000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>49000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>28000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>24000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>36000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>22000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>36000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>4000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>5000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>4000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>5700000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>4200000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>22500000</v>
+      </c>
+      <c r="C9">
         <v>22000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>22500000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>22300000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>23500000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>23800000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>21200000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>35700000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>3400000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>4100000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>3700000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4100000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>4700000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>5500000</v>
-      </c>
-      <c r="O9">
-        <v>5400000</v>
       </c>
       <c r="P9">
         <v>5400000</v>
       </c>
       <c r="Q9">
+        <v>5400000</v>
+      </c>
+      <c r="R9">
         <v>5700000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>6000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>6700000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>7100000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>7600000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>8200000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>9100000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>8200000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>6000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>5600000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>5900000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>5700000</v>
-      </c>
-      <c r="AC9">
-        <v>6000000</v>
       </c>
       <c r="AD9">
         <v>6000000</v>
@@ -1487,529 +1622,544 @@
         <v>6000000</v>
       </c>
       <c r="AF9">
+        <v>6000000</v>
+      </c>
+      <c r="AG9">
         <v>5900000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>5100000</v>
-      </c>
-      <c r="AH9">
-        <v>4600000</v>
       </c>
       <c r="AI9">
         <v>4600000</v>
       </c>
       <c r="AJ9">
+        <v>4600000</v>
+      </c>
+      <c r="AK9">
         <v>4700000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>4800000</v>
-      </c>
-      <c r="AL9">
-        <v>5100000</v>
       </c>
       <c r="AM9">
         <v>5100000</v>
       </c>
       <c r="AN9">
+        <v>5100000</v>
+      </c>
+      <c r="AO9">
         <v>5400000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>-21500000</v>
+      </c>
+      <c r="C10">
         <v>-13900000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-8000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-20500000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-22600000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-21700000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-12300000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-33900000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-2700000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-2800000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-1900000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-3000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-4300000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-5300000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-4000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-4400000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-4100000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-5300000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-7100000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-6200000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-6300000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-7800000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-6400000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-14200000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>2900000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-6400000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>11300000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-7000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-7700000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-8100000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-2600000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>-5100000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>-5500000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-6400000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>3600000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-4100000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>500000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-5800000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-5100000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-5900000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>252300000</v>
+      </c>
+      <c r="C11">
         <v>231300000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>221500000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>203000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>172500000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>167900000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>92100000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>101300000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>141100000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>119700000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>107900000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>101000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>129500000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>123400000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>127900000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>92900000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>107100000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>100200000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>104400000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>82200000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>88300000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>81700000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>76400000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>40600000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>60100000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>62400000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>64900000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>53900000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>65800000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>63700000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>66500000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>62200000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>74400000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>67900000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>77900000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>61900000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>64000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>47200000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>59800000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>53000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>25500000</v>
+      </c>
+      <c r="C12">
         <v>53100000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>50200000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-9600000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>10700000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>33800000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>27400000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>16600000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>9000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>25800000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>14200000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>18800000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>13800000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>16700000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>23300000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>17600000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>16000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>9900000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>18500000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>15700000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>20700000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>12700000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>16300000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>10100000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>7100000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>10400000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>18000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>14900000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>11900000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>13900000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>18400000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>18500000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>15500000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>13000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>22100000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>15900000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>9500000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>300000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>16500000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>13200000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>226800000</v>
+      </c>
+      <c r="C13">
         <v>178200000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>171300000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>212600000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>161800000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>134100000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>64700000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>84700000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>132100000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>93900000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>93700000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>82200000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>115700000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>106700000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>104600000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>75300000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>91100000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>90300000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>85900000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>66500000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>67600000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>69000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>60100000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>30500000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>53000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>52000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>46900000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>39000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>53900000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>49800000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>48100000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>43700000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>58900000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>54900000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>55800000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>46000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>54500000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>46900000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>43300000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>39800000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="G14">
         <v>0</v>
       </c>
       <c r="I14">
@@ -2021,25 +2171,25 @@
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="M14">
+      <c r="L14">
         <v>0</v>
       </c>
-      <c r="O14">
+      <c r="N14">
         <v>0</v>
       </c>
-      <c r="R14">
+      <c r="P14">
         <v>0</v>
       </c>
-      <c r="X14">
+      <c r="S14">
         <v>0</v>
       </c>
-      <c r="AG14">
+      <c r="Y14">
         <v>0</v>
       </c>
       <c r="AH14">
         <v>0</v>
       </c>
-      <c r="AL14">
+      <c r="AI14">
         <v>0</v>
       </c>
       <c r="AM14">
@@ -2048,495 +2198,501 @@
       <c r="AN14">
         <v>0</v>
       </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>400000</v>
+      </c>
+      <c r="C15">
         <v>-100000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-300000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-1300000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-700000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-300000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>200000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-400000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>100000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>400000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-600000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>226400000</v>
+      </c>
+      <c r="C16">
         <v>178300000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>171300000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>212600000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>161800000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>134100000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>64700000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>84700000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>132100000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>93900000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>93700000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>82200000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>115700000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>106700000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>104600000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>75300000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>91100000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>90300000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>85900000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>66500000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>67600000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>69000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>60100000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>30500000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>53000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>52000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>46900000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>39000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>55500000</v>
-      </c>
-      <c r="AD16">
-        <v>48300000</v>
       </c>
       <c r="AE16">
         <v>48300000</v>
       </c>
       <c r="AF16">
+        <v>48300000</v>
+      </c>
+      <c r="AG16">
         <v>43700000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>60200000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>55600000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>56100000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>45800000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>54900000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>46800000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>42900000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>40400000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>3.74</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>3.59</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>4.46</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3.39</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2.81</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1.48</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2.23</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3.48</v>
-      </c>
-      <c r="J17">
-        <v>2.48</v>
       </c>
       <c r="K17">
         <v>2.48</v>
       </c>
       <c r="L17">
+        <v>2.48</v>
+      </c>
+      <c r="M17">
         <v>2.17</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>3.06</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>2.84</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>2.8</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>2.02</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2.45</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>2.43</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>2.32</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1.81</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1.84</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1.9</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1.66</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.84</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1.48</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>1.46</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>1.31</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>1.1</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>1.57</v>
-      </c>
-      <c r="AD17">
-        <v>1.34</v>
       </c>
       <c r="AE17">
         <v>1.34</v>
       </c>
       <c r="AF17">
+        <v>1.34</v>
+      </c>
+      <c r="AG17">
         <v>1.2</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>1.62</v>
-      </c>
-      <c r="AH17">
-        <v>1.47</v>
       </c>
       <c r="AI17">
         <v>1.47</v>
       </c>
       <c r="AJ17">
+        <v>1.47</v>
+      </c>
+      <c r="AK17">
         <v>1.2</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1.44</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>1.23</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>1.13</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1.07</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>3.74</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>3.59</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>4.46</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>3.39</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2.81</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.48</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.23</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>3.48</v>
-      </c>
-      <c r="J18">
-        <v>2.48</v>
       </c>
       <c r="K18">
         <v>2.48</v>
       </c>
       <c r="L18">
+        <v>2.48</v>
+      </c>
+      <c r="M18">
         <v>2.17</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>3.06</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>2.84</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>2.8</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>2.02</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>2.45</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>2.43</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>2.32</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1.81</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>1.84</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>1.9</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1.66</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.84</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>1.48</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>1.46</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>1.31</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>1.1</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>1.57</v>
-      </c>
-      <c r="AD18">
-        <v>1.34</v>
       </c>
       <c r="AE18">
         <v>1.34</v>
       </c>
       <c r="AF18">
+        <v>1.34</v>
+      </c>
+      <c r="AG18">
         <v>1.2</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>1.62</v>
-      </c>
-      <c r="AH18">
-        <v>1.47</v>
       </c>
       <c r="AI18">
         <v>1.47</v>
       </c>
       <c r="AJ18">
+        <v>1.47</v>
+      </c>
+      <c r="AK18">
         <v>1.2</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>1.44</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>1.23</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>1.13</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>1.07</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>46800000</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C19">
         <v>46800000</v>
       </c>
       <c r="D19">
+        <v>46800000</v>
+      </c>
+      <c r="E19">
         <v>46700000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>43200000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>46600000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>42500000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>37000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>36700000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>36800000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>36700000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>36600000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>36300000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>36400000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>36200000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>36100000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>35800000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>35900000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>35800000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>35600000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>35200000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>35300000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>35200000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>35100000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>34600000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>34700000</v>
-      </c>
-      <c r="AA19">
-        <v>34400000</v>
       </c>
       <c r="AB19">
         <v>34400000</v>
       </c>
       <c r="AC19">
-        <v>35300000</v>
+        <v>34400000</v>
       </c>
       <c r="AD19">
         <v>35300000</v>
@@ -2545,22 +2701,22 @@
         <v>35300000</v>
       </c>
       <c r="AF19">
+        <v>35300000</v>
+      </c>
+      <c r="AG19">
         <v>35700000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>37100000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>37200000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>37400000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>37500000</v>
-      </c>
-      <c r="AK19">
-        <v>37300000</v>
       </c>
       <c r="AL19">
         <v>37300000</v>
@@ -2569,15 +2725,18 @@
         <v>37300000</v>
       </c>
       <c r="AN19">
+        <v>37300000</v>
+      </c>
+      <c r="AO19">
         <v>37200000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>47700000</v>
+        <v>47800000</v>
       </c>
       <c r="C20">
         <v>47700000</v>
@@ -2586,22 +2745,22 @@
         <v>47700000</v>
       </c>
       <c r="E20">
+        <v>47700000</v>
+      </c>
+      <c r="F20">
         <v>44300000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>47700000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>43600000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>38000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>37900000</v>
-      </c>
-      <c r="J20">
-        <v>37800000</v>
       </c>
       <c r="K20">
         <v>37800000</v>
@@ -2610,1593 +2769,1620 @@
         <v>37800000</v>
       </c>
       <c r="M20">
+        <v>37800000</v>
+      </c>
+      <c r="N20">
         <v>37500000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>37600000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>37400000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>37200000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>37000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>37200000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>37000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>36800000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>36300000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>36400000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>36200000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>36100000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>35500000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>35600000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>35300000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>35200000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>36000000</v>
-      </c>
-      <c r="AD20">
-        <v>36100000</v>
       </c>
       <c r="AE20">
         <v>36100000</v>
       </c>
       <c r="AF20">
+        <v>36100000</v>
+      </c>
+      <c r="AG20">
         <v>36500000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>37900000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>37800000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>38100000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>38300000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>38000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>38100000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>38000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>37800000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.435</v>
+      </c>
+      <c r="C21">
         <v>0.4237</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.4184</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.4303</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.397</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.3996</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.4085</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.3887</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.3901</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.3879</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.3803</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.3722</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.3945</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.392</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.4072</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.3775</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.3859</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.3848</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.3898</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.37</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.3793</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.383</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.3724</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.3694</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.3643</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.3983</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.3771</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.3877</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.3621</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.3832</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.383</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.3878</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.3707</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.3755</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.383</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.3867</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.3597</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.3544</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.3617</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.3583</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.1931</v>
+      </c>
+      <c r="C22">
         <v>0.1798</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.1693</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.1692</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.1418</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.1445</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.0931</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.1678</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.1777</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.1636</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.1477</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.1326</v>
-      </c>
-      <c r="M22">
-        <v>0.1604</v>
       </c>
       <c r="N22">
         <v>0.1604</v>
       </c>
       <c r="O22">
+        <v>0.1604</v>
+      </c>
+      <c r="P22">
         <v>0.1687</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.1306</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.1486</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.1455</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.1522</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.1271</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.1343</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.1352</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.1234</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.0968</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.1035</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.1306</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.0993</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.1148</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.1209</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.1301</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.1205</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.1191</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.1284</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.1236</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.1244</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.1151</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.1064</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.0927</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.108</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.1034</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.1779</v>
+      </c>
+      <c r="C23">
         <v>0.1696</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.1634</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.1537</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.1254</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.128</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.0822</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.1257</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.1743</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.1598</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.1452</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.1287</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.1552</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.1538</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.1636</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.1247</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.1431</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.1381</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.1425</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.1182</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.1254</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.1234</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.1138</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.0717</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.1087</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.1185</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.1203</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.1016</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.1083</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.1155</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.1159</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.1101</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.1196</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.113</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.1305</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.1079</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.1073</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.08260000000000001</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.09950000000000001</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.0931</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>0.1596</v>
+      </c>
+      <c r="C24">
         <v>0.1308</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.1263</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.1609</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.1176</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.1022</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.0577</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.1051</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.1632</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.1254</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.1261</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.1048</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.1387</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.133</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.1338</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.101</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.1217</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.1245</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.1173</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.0956</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.096</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.1042</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.0896</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.0539</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.0959</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.0987</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.08690000000000001</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.0735</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.09130000000000001</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.08749999999999999</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.0842</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.07729999999999999</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.09669999999999999</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.0925</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.094</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.0799</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.092</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.0819</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.07140000000000001</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.07099999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>325999900</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>312200100</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>310400000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>329100000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>315000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>187500000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>164500000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>172499800</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>151700000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>138800000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>133300000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>163100200</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>156600000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>159000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>124900000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>140500100</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>132799900</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>139100000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>117200000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>120200000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>120900000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>115999900</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>77600000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>78899800</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>91600000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>75300000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>82000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>96200200</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>93600000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>91700000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>90500000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>104100200</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>97800000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>97700000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>89200000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>87500000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>76100000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>87000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>80800000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>273799900</v>
+      </c>
+      <c r="C26">
         <v>245200000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>229500100</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>223500000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>195099800</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>189600000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>104400000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>135200000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>143799900</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>122500000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>109800000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>104000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>133800200</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>128700000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>131900000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>97300000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>111200200</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>105499900</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>111500000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>88400000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>94600000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>89500000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>82799900</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>54800000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>57199900</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>68800000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>53600000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>60900000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>73500100</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>71800000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>69100000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>67300000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>79900000</v>
-      </c>
-      <c r="AH26">
-        <v>74300000</v>
       </c>
       <c r="AI26">
         <v>74300000</v>
       </c>
       <c r="AJ26">
+        <v>74300000</v>
+      </c>
+      <c r="AK26">
         <v>66000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>63500000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>53000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>64900000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>58900000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>226800000</v>
+      </c>
+      <c r="C27">
         <v>178200000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>171300000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>212600000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>161800000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>134100000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>64700000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>84700000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>132100000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>93900000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>93700000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>82200000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>115700000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>106700000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>104600000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>75300000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>91100000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>90300000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>85900000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>66500000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>67600000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>69000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>60100000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>30500000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>53000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>52000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>46900000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>39000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>53900000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>49800000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>48100000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>43700000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>58900000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>54900000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>55800000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>46000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>54500000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>46900000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>43300000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>39800000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE28">
         <v>-1500000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-100000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>226800000</v>
+      </c>
+      <c r="C29">
         <v>178200000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>171300000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>212600000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>161800000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>134100000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>64700000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>84700000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>132100000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>93900000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>93700000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>82200000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>115700000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>106700000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>104600000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>75300000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>91100000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>90300000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>85900000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>66500000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>67600000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>69000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>60100000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>30500000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>53000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>52000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>46900000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>39000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>55500000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>48300000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>48000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>43700000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>58900000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>54900000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>55800000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>46000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>54500000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>46900000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>43300000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>39800000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>3.8077</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>3.6603</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>4.5525</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>3.6186</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>2.8777</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1.5224</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2.2892</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>3.6003</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>2.5516</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>2.5531</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>2.2459</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>3.176</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>2.9313</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>2.8895</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>2.0859</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>2.5413</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>2.5153</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>2.3994</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1.868</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>1.9235</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1.9547</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1.7074</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.8689</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1.5217</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1.4986</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>1.3634</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1.1337</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1.5342</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1.41</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1.37</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1.2241</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>1.6169</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1.4758</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1.492</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>1.2267</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1.4583</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1.2574</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1.1609</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1.0699</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>4.7448</v>
+      </c>
+      <c r="C31">
         <v>3.7358</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>3.5912</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>4.457</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>3.5277</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2.8113</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>1.4839</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>2.2289</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>3.4667</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>2.4841</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>2.4788</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>2.1746</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>3.0693</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>2.8378</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>2.7968</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>2.0242</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>2.4655</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>2.4274</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>2.3216</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1.8071</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>1.8583</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1.8956</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>1.6602</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.8449</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1.4802</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>1.4607</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>1.3286</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>1.108</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>1.5133</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>1.38</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>1.34</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1.1973</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>1.5707</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>1.4524</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>1.4646</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>1.201</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>1.4319</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>1.231</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>1.1395</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>1.0529</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE32">
         <v>-0.04</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-0.0028</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE33">
         <v>-0.04</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-0.0028</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
         <v>3.8077</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>3.6603</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>4.5525</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>3.6186</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>2.8777</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>1.5224</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>2.2892</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>3.6003</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>2.5516</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>2.5531</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>2.2459</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>3.176</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>2.9313</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>2.8895</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>2.0859</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>2.5413</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>2.5153</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>2.3994</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>1.868</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>1.9235</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>1.9547</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>1.7074</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.8689</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>1.5217</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>1.4986</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>1.3634</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>1.1337</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>1.5861</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>1.3683</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>1.3598</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>1.2241</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>1.6169</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>1.4758</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>1.492</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>1.2267</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>1.4583</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>1.2574</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>1.1609</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>1.0699</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>4.7448</v>
+      </c>
+      <c r="C35">
         <v>3.7358</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>3.5912</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>4.457</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>3.5277</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>2.8113</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>1.4839</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>2.2289</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>3.4667</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>2.4841</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>2.4788</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>2.1746</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>3.0693</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>2.8378</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>2.7968</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>2.0242</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>2.4655</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>2.4274</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>2.3216</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>1.8071</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>1.8583</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>1.8956</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>1.6602</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>0.8449</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>1.4802</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>1.4607</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>1.3286</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>1.108</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>1.5657</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>1.338</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>1.3296</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>1.1973</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>1.5707</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>1.4524</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>1.4646</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>1.201</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>1.4319</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>1.231</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>1.1395</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>1.0529</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>47700000</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C36">
         <v>47700000</v>
@@ -4211,16 +4397,16 @@
         <v>47700000</v>
       </c>
       <c r="G36">
+        <v>47700000</v>
+      </c>
+      <c r="H36">
         <v>43600000</v>
-      </c>
-      <c r="H36">
-        <v>38000000</v>
       </c>
       <c r="I36">
         <v>38000000</v>
       </c>
       <c r="J36">
-        <v>37800000</v>
+        <v>38000000</v>
       </c>
       <c r="K36">
         <v>37800000</v>
@@ -4232,13 +4418,13 @@
         <v>37800000</v>
       </c>
       <c r="N36">
+        <v>37800000</v>
+      </c>
+      <c r="O36">
         <v>37600000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>37400000</v>
-      </c>
-      <c r="P36">
-        <v>37200000</v>
       </c>
       <c r="Q36">
         <v>37200000</v>
@@ -4247,313 +4433,322 @@
         <v>37200000</v>
       </c>
       <c r="S36">
+        <v>37200000</v>
+      </c>
+      <c r="T36">
         <v>37000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>36800000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>36700000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>36400000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>36200000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>36100000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>35900000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>35600000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>35000000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>34900000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>35400000</v>
-      </c>
-      <c r="AD36">
-        <v>36100000</v>
       </c>
       <c r="AE36">
         <v>36100000</v>
       </c>
       <c r="AF36">
+        <v>36100000</v>
+      </c>
+      <c r="AG36">
         <v>36500000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>37200000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>37800000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>38100000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>38300000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>38200000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>38100000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>38000000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>37800000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
         <v>0.2391</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.2303</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.235</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.2392</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.2401</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.1673</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0.2042</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.2131</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.2025</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.1867</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0.1699</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.1955</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>0.1952</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>0.2033</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>0.1676</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>0.1877</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>0.1831</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>0.1899</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>0.1685</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.1706</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.1826</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.1729</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>0.1371</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>0.1427</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>0.1739</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>0.1395</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>0.1546</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>0.1583</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>0.1697</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>0.1599</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>0.1602</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>0.1673</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>0.1627</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>0.1636</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>0.1555</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>0.1467</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>0.1331</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>0.1448</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>0.1419</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
         <v>0.1972</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.1452</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>-0.164</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.2149</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.147</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.1885</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.155</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.2921</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.2007</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>0.2096</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0.0974</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.2013</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.1881</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0.1064</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>0.1075</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>0.1677</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>0.1956</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.1473</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>0.1029</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.1794</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.1629</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.1296</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>0.09429999999999999</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>0.1199</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>0.186</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>0.1549</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>0.1303</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>0.1004</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>0.1332</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>0.1029</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>0.0296</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>0.1376</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>0.1334</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>0.1591</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>0.0473</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>0.1638</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>0.0866</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>0.1877</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>-0.09959999999999999</v>
       </c>
     </row>
